--- a/TFT_PinBelegung.xlsx
+++ b/TFT_PinBelegung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>VCC</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Habe nix am Pin 19, scheint nicht nötig zu sein (oder liegt's am TFT_SDA_READ?)</t>
+  </si>
+  <si>
+    <t>C:\Users\Stefan.DESKTOP-GFTTGH4\Documents\Arduino\libraries\TFT_eSPI</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,6 +572,9 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">

--- a/TFT_PinBelegung.xlsx
+++ b/TFT_PinBelegung.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -153,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -456,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,10 +642,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f>128/21</f>
+        <v>6.0952380952380949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
